--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H2">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.403560666666667</v>
+        <v>1.366995666666667</v>
       </c>
       <c r="N2">
-        <v>7.210682</v>
+        <v>4.100987</v>
       </c>
       <c r="O2">
-        <v>0.06725806189087252</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="P2">
-        <v>0.06725806189087251</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="Q2">
-        <v>4.818563884480445</v>
+        <v>0.9985593492648889</v>
       </c>
       <c r="R2">
-        <v>43.367074960324</v>
+        <v>8.987034143383999</v>
       </c>
       <c r="S2">
-        <v>0.008075665595009173</v>
+        <v>0.0008394753848023838</v>
       </c>
       <c r="T2">
-        <v>0.008075665595009171</v>
+        <v>0.0008394753848023835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.534961</v>
       </c>
       <c r="O3">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274216</v>
       </c>
       <c r="P3">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274215</v>
       </c>
       <c r="Q3">
-        <v>25.75112470144466</v>
+        <v>9.382971850461331</v>
       </c>
       <c r="R3">
-        <v>231.760122313002</v>
+        <v>84.44674665415198</v>
       </c>
       <c r="S3">
-        <v>0.04315756245424777</v>
+        <v>0.007888137956501652</v>
       </c>
       <c r="T3">
-        <v>0.04315756245424777</v>
+        <v>0.007888137956501652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.48784733333333</v>
+        <v>37.298478</v>
       </c>
       <c r="N4">
-        <v>61.463542</v>
+        <v>111.895434</v>
       </c>
       <c r="O4">
-        <v>0.573304815254402</v>
+        <v>0.7240952132298927</v>
       </c>
       <c r="P4">
-        <v>0.5733048152544019</v>
+        <v>0.7240952132298926</v>
       </c>
       <c r="Q4">
-        <v>41.07323047853821</v>
+        <v>27.245692746832</v>
       </c>
       <c r="R4">
-        <v>369.6590743068439</v>
+        <v>245.211234721488</v>
       </c>
       <c r="S4">
-        <v>0.06883662481257685</v>
+        <v>0.02290508663274956</v>
       </c>
       <c r="T4">
-        <v>0.06883662481257684</v>
+        <v>0.02290508663274956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.403560666666667</v>
+        <v>1.366995666666667</v>
       </c>
       <c r="N5">
-        <v>7.210682</v>
+        <v>4.100987</v>
       </c>
       <c r="O5">
-        <v>0.06725806189087252</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="P5">
-        <v>0.06725806189087251</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="Q5">
-        <v>22.61667664490333</v>
+        <v>12.86295760982833</v>
       </c>
       <c r="R5">
-        <v>203.55008980413</v>
+        <v>115.766618488455</v>
       </c>
       <c r="S5">
-        <v>0.03790438849279401</v>
+        <v>0.0108137150757806</v>
       </c>
       <c r="T5">
-        <v>0.037904388492794</v>
+        <v>0.0108137150757806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>38.534961</v>
       </c>
       <c r="O6">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274216</v>
       </c>
       <c r="P6">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274215</v>
       </c>
       <c r="Q6">
         <v>120.866896149485</v>
@@ -818,10 +818,10 @@
         <v>1087.802065345365</v>
       </c>
       <c r="S6">
-        <v>0.2025667103747836</v>
+        <v>0.1016111703622365</v>
       </c>
       <c r="T6">
-        <v>0.2025667103747836</v>
+        <v>0.1016111703622365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.48784733333333</v>
+        <v>37.298478</v>
       </c>
       <c r="N7">
-        <v>61.463542</v>
+        <v>111.895434</v>
       </c>
       <c r="O7">
-        <v>0.573304815254402</v>
+        <v>0.7240952132298927</v>
       </c>
       <c r="P7">
-        <v>0.5733048152544019</v>
+        <v>0.7240952132298926</v>
       </c>
       <c r="Q7">
-        <v>192.7835750993366</v>
+        <v>350.9658100050899</v>
       </c>
       <c r="R7">
-        <v>1735.05217589403</v>
+        <v>3158.69229004581</v>
       </c>
       <c r="S7">
-        <v>0.323095370744565</v>
+        <v>0.2950522256122276</v>
       </c>
       <c r="T7">
-        <v>0.3230953707445648</v>
+        <v>0.2950522256122276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.403560666666667</v>
+        <v>1.366995666666667</v>
       </c>
       <c r="N8">
-        <v>7.210682</v>
+        <v>4.100987</v>
       </c>
       <c r="O8">
-        <v>0.06725806189087252</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="P8">
-        <v>0.06725806189087251</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="Q8">
-        <v>12.69609776770933</v>
+        <v>17.70579629851511</v>
       </c>
       <c r="R8">
-        <v>114.264879909384</v>
+        <v>159.352166686636</v>
       </c>
       <c r="S8">
-        <v>0.02127800780306935</v>
+        <v>0.01488502428210275</v>
       </c>
       <c r="T8">
-        <v>0.02127800780306934</v>
+        <v>0.01488502428210275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>38.534961</v>
       </c>
       <c r="O9">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274216</v>
       </c>
       <c r="P9">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274215</v>
       </c>
       <c r="Q9">
-        <v>67.84984171134799</v>
+        <v>166.3726731728786</v>
       </c>
       <c r="R9">
-        <v>610.648575402132</v>
+        <v>1497.354058555908</v>
       </c>
       <c r="S9">
-        <v>0.1137128500256942</v>
+        <v>0.1398672637086834</v>
       </c>
       <c r="T9">
-        <v>0.1137128500256942</v>
+        <v>0.1398672637086834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.48784733333333</v>
+        <v>37.298478</v>
       </c>
       <c r="N10">
-        <v>61.463542</v>
+        <v>111.895434</v>
       </c>
       <c r="O10">
-        <v>0.573304815254402</v>
+        <v>0.7240952132298927</v>
       </c>
       <c r="P10">
-        <v>0.5733048152544019</v>
+        <v>0.7240952132298926</v>
       </c>
       <c r="Q10">
-        <v>108.2209891355227</v>
+        <v>483.1026680011279</v>
       </c>
       <c r="R10">
-        <v>973.988902219704</v>
+        <v>4347.924012010152</v>
       </c>
       <c r="S10">
-        <v>0.1813728196972603</v>
+        <v>0.4061379009849155</v>
       </c>
       <c r="T10">
-        <v>0.1813728196972602</v>
+        <v>0.4061379009849155</v>
       </c>
     </row>
   </sheetData>
